--- a/confidence_intervals_sharpe.xlsx
+++ b/confidence_intervals_sharpe.xlsx
@@ -832,8 +832,12 @@
       <c r="AB5" t="n">
         <v>0.002439541500702277</v>
       </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>0.001165143540629983</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.007505579256266729</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -916,8 +920,12 @@
       <c r="AB6" t="n">
         <v>0.02152230191289688</v>
       </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.01728426860556066</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0300246782349834</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -930,32 +938,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0006951502694166399</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003655115420151653</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.0006963846795145457</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.002671741805294522</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0002199526360662459</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.002729016206641899</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.001988714451205678</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.002333810053655385</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.001158645826149078</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.007434440965470458</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -966,32 +1026,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.009082331690127515</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01441934610941409</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.009607439802355792</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01925661389728731</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.00797360234427982</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.01420407758045959</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.00933534676005808</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.02152241603054056</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.01725321069008017</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.02972498323739924</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1004,32 +1116,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0007820935721987244</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003786774607711412</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.0006569082176137268</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.002803716618710046</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0003773172711055953</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.002885105790842131</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.002070631582591595</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.002269990494582865</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.001047906057981681</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.007472662391324685</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -1040,32 +1204,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.008988930002926139</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01451562635493463</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.00973414166352754</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.01931799341331904</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.007915210965140345</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.01428801550696359</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.01037947878550573</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.02281364662152224</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.01728468116467508</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0300446979355623</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -1078,32 +1294,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.000683302978661998</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003635304275388862</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.0007910586759362879</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.002689069889217011</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0002830649794014696</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.002830619248804899</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.002198702298098109</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.002121356023350673</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0009154750211197524</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.007482910509832962</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1114,32 +1382,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.008925262995438128</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.01450482984968109</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.009693854209634964</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.01928229502416242</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.007947999571551992</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.0142843455332899</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.01029813671824745</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.02277305327058823</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.01707138258315397</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.02996651426364507</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -1152,32 +1472,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0004354774246882239</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.003362148665145882</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.0004707042134044876</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.002856696074429189</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0003129921239170088</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.002787675041837531</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.002032673938934831</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.00232693013363739</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.001548618044502</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.008091986432981105</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -1188,32 +1560,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.008675346562486957</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01421195418160459</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.01020440787827767</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.01938391809214048</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.007643836253265372</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.01411896968083225</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.01033551979677114</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.02266662126878866</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.01714543243189117</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.030092620880611</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1226,32 +1650,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0003324089331579916</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.003232390023703536</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.00062232766241918</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.002703723664358915</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0001679769187474867</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.002586751116402107</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.002347483324899776</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.002123458443936828</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.001453187152544914</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.007931180691844954</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -1262,32 +1738,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.00866677004802568</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01415109351068081</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.01010762337129314</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.01930101120201758</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.007608881995490263</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.01404481556732648</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.01035338625430215</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.02261530132807953</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.0171326875604301</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.03019165216471264</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -1300,32 +1828,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0003415005207987004</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.003222492026533602</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.0006173008132690002</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.002760856102606045</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0001708810370162645</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.002639392001065442</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.002219815291567341</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.002135455161214156</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.001439137479468481</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.007923303382338195</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1336,32 +1916,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.008813471275648977</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.01420940679252868</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.009679764543317426</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.01932610124061781</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.007636589461067943</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.01404307473940889</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.01036671522371626</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.02265927265692436</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.01720284702755922</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.0302975629784643</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -1374,32 +2006,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0002837073275900747</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.003111997535149865</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.0006947082498342115</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.002697680888119969</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.0001231151729053754</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.002574472389674402</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.002251514156240917</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.0021222972826573</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.002013218571486636</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.008429086932567378</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1410,32 +2094,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.008821709231045208</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.014174806110322</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.009671361896006214</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.01929983194228405</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.007649665370473133</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.01408170859796434</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.010406246027223</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.02265728281089211</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.01747553045882905</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.03055686596178445</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1448,32 +2184,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0004100730537976564</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.003322270185876892</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.0005209421467168493</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.002878704266358141</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.0002031290088074797</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.002628107986306523</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-0.002071468185007863</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.002290094597329735</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.001727078421015364</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.00841025869330537</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -1484,32 +2272,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.008863147292195816</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.01417345218065619</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.009697154002891246</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.01934107585622963</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.007736091568386345</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.0140796354111103</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.01051094619086822</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.02268164768797706</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.01732365660514486</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.03056276865431013</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1522,32 +2362,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0004186865580003943</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.003305675525385041</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.0004896033524236368</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.002791811800143724</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.000190907924097167</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.002623809748254312</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.002055667104498413</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.002179622553538501</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.001832317636028994</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.008363387604390322</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1558,32 +2450,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.008925453844110628</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.01423127030263401</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.01008668006680227</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.01937369376298403</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.007740746154149535</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.01412764125181175</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.01054018268053265</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.02264875026460237</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.01726678205984416</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.03046343867460095</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -1596,32 +2540,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0004423414313471322</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.003322959949477945</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.000453539090561048</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.002791052569061294</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.0001559281313139971</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.002589896823168964</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.002028989959359588</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.002100850474185288</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.001815959750099938</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.008359390922250886</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1632,32 +2628,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.008832783658995003</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.01414595051132441</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.01011233974003472</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.01930665476614807</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.007750979515061249</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.01412386634459869</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.01046891951622526</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.02267177612743126</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.01725521426013137</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.03025212494704892</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1670,32 +2718,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0004646946653272081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.003325387148871239</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.0004420301997663362</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.002791052569061294</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.0001929393919354772</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.002596950662914676</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.00205241896653765</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.002072072737325682</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.001946625399249008</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.008578313557538714</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -1706,32 +2806,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.008837648768256613</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.01413160729805843</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.01010732736670126</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.01931215185795679</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.007798512012464931</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.01413419309483248</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.01048444157255617</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.02268297352912788</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.01736277392357773</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.03026402892036556</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -1744,32 +2896,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0004680654780742088</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.003329638408490864</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.0004471651456855468</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.002777474605644742</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.0002234044580722663</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.002596950662914676</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.002062995344025254</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.00204868363955432</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.002001742304543643</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.008472012975876053</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -1780,32 +2984,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.008838107957988329</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01418630589768384</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.009702444391737987</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.01934081444103986</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.007780784269093545</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.01413893863678758</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.01048116842329271</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.02269484530647998</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.01731027362434959</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.03025542618009382</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -1818,32 +3074,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0004325106772001103</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.003328864283783894</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.0005055694766209762</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.002802228011204441</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0001645710401851049</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.002598884967876958</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.002093503709015981</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.002030379416982188</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.001945813863686482</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.008467759685344007</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
@@ -1854,32 +3162,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.00884869811770406</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01411265437130922</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.01009997421159984</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.01932453324986695</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.007724057993638039</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.01412502849107885</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.01068689260450046</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.02272267783806031</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.01729450328771989</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.03026441145529334</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1892,32 +3252,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0.0001511023021401521</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.003649905933692979</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.001189663831123531</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.002711071643562372</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.0002264414884767061</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.002933864089959284</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0004864533507386967</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.003329446786694607</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.0008947001674972825</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.004614706651094248</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.0004397284487091704</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.003382551550776129</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.0004873902390003554</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.002810101911783069</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-0.001694417662288297</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.002524746207119072</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-0.001242579532825755</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.002089645938060079</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.0001889099461072144</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.002638710257078764</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-0.0020879214287526</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.002951603016479771</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.00206104589452867</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.001985877991220399</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.002099610195073286</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.008517553149294622</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -1928,32 +3340,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>0.01407571900293872</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.02201645666736824</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01394728688389033</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.02081249596008353</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01058198309975321</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01673802722552535</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.008797818485913314</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.01412879461949884</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.01589486932470755</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02646787190040692</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.01228884163871708</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.02200174212630349</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.009714179476314089</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.01933043598429325</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.013784404221775</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.02263116055656711</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.01005663790857649</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.01668814427668413</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.007738260867146265</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.01414655596439275</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.01335146178846575</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.02526743462127657</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.01039439391458261</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.02272193256871259</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.01725932686770362</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.03030724179681003</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -1968,32 +3432,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.000627521654115169</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.001578679270755938</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.0008956214870154875</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.002269271070150536</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.001252155164373278</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.003703958011408287</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.000398459580884501</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.003535823401284768</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.002705212971647101</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.008662497511158548</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -2004,32 +3520,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.008041816659733669</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.01411408532390832</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.009949170205767861</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.02146071989261115</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.0053555910078557</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.01191616462999685</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.01194616738675917</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.02472387976541097</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.02107000381646015</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.03415629282216251</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -2042,32 +3610,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0005933237646782933</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.001697244530599711</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.0008286298908245461</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.002346074620554493</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.001460560030724349</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.003988869687505499</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-0.0005271788145519429</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.003406705845699277</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.002692653196399755</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.008664440224219919</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -2078,32 +3698,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.008106171212328645</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.01419014298464506</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.01000729245332167</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.02153170692636623</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.005711910848313026</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.01232406420888281</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.01281550927135359</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.02587635125102222</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.02179453667098843</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.03493086077557023</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -2116,32 +3788,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0007007211912986812</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.001574039469415754</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-0.0009857703424283233</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.002233441526154359</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.001405660637232841</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.003956129067416487</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-0.0006645290833277545</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.003304765129417256</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.002806489708204359</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.008749570514806633</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -2152,32 +3876,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.008023363653227094</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.01412760819786914</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.01002931966823195</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.02148271534072629</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.005756250805899794</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.01231349916399505</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.01276656492853545</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.02579336292912841</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.02206180069108544</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.03509853443071033</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -2190,32 +3966,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0006242580950271027</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.001635383503859631</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.0009256921046429055</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.00208826742993389</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.001352124155484785</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.003878485225778164</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-0.0006584758184015956</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.003279322443459963</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.002780324985316392</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.008866309826853347</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -2226,32 +4054,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.008076796252827631</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0141889093910115</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.01044955461345845</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.02165659075958124</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.005745110239168091</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.01234149282685122</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.01278182867760595</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.0258028431108604</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.02213586393199981</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.03510884592960849</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -2264,32 +4144,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0006910251305339015</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.001503464484211493</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.001047956931776499</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.002029648717533528</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.00117441980628037</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.003696951447441043</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-0.0008400610313900919</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.003039660995516947</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.001552340950763284</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.007640580317647035</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -2300,32 +4232,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.008166801235018199</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.01427562614272555</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.01048784577727753</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.02167509611792064</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.005905182154105399</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.0124289248586756</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.01286219483912766</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.025881543297514</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.02208315257399866</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.03502250586631611</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -2338,32 +4322,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0006157345558483291</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.001579714206806907</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-0.0009783084314050213</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.002139092880490453</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.001242385748960937</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.003705147101327522</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>-0.0008778946629579326</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.003027132862261821</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.00150460961307571</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.007492369531922139</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -2374,32 +4410,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.008157711639133817</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.01425013109813985</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.01021791935138486</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.02168325389118664</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.005864847962023807</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.01239652228442907</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.01269229242914218</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.02570647230369266</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.02207171602196968</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.03495869743219082</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -2412,32 +4500,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.000625198008657639</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.001539558016245806</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-0.0007574620936029067</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.002304285833196989</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.001091323680490269</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.00357903167010546</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-0.0009141171923065837</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.00298485489790214</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.001208160209613795</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.007420278712941026</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -2448,32 +4588,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.007979925190320678</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.01391932046371864</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.00922803039057395</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.02058542187788571</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.005669141304657696</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.01221660939650966</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.01177830494120178</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.02513226780573916</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.0222751402987707</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.03510869691966144</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -2486,32 +4678,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.0006286316768127926</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.001545113562776713</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.00075714248043736</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.00229529820919398</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.001071128508679813</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.003538955149970002</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.0008160854536103804</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.00298485489790214</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.001209029082612246</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.007355624663260249</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
@@ -2522,32 +4766,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.007964691378059906</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.01392047098914776</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.009308472348701361</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.02058542187788571</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.005647539937494273</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.01223350023239103</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.01179717106027758</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.02513226780573916</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.02228764434459089</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.03509308553765786</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
@@ -2560,32 +4856,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0007311136612591703</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.001422626292388544</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.0007428789297177184</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.002441899076189053</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.001080164303947295</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.003552509944866172</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.0008220710352826429</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.003091657739619105</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.001078352404072474</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.00723144498841935</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -2596,32 +4944,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.008224326560642762</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.01425065512810027</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.0101088336638087</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.02140148312234254</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.005653102943484785</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.01224617354268903</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.01251007421478085</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.02582231888855115</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.02198758934082848</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.03485404241380127</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -2634,32 +5034,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.0008600617739235413</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.00130611705857406</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-0.0007753855756850729</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.002479638914917444</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.001083992521804707</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.003564640513862524</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-0.0008309616767559875</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.003133987877629429</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.001059306056330545</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.007299792699733371</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -2670,32 +5122,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.008140065669058142</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.01421602517920598</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.009978881139270646</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.02140148312234254</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.005648306369047396</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0122476306777545</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.01240522659905036</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.02569755994428169</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.02200268014326229</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.03487789439439102</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -2708,32 +5212,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0008462404390617406</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.001345926548951249</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.0009235128979815106</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.002399538195534574</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.001261443431068643</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.003728362722836229</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-0.0008155028196166342</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.003157178648705329</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.001220519854345553</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.007243790093136665</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -2744,32 +5300,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.008329578116889657</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01450999806202407</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.01094342355593821</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.02253962893116036</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0058245628861722</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.01243224784343425</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.01331367604065403</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.0264995158498575</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.02215321516914639</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.03499622853316847</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -2782,32 +5390,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.000813498308087367</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.001305651674448362</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.0006743288099788733</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.002682241535876302</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.001114727586306893</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.003595029725057827</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.0007162235939817329</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.003284105312535921</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.001037720393716608</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.007281087959246789</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -2818,32 +5478,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.008184498008917875</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.01436497929491101</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.01069930107251176</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.02225765732360066</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.005780705530815536</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.01230904965223157</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.01281169064493684</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.02590349108257591</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.02184977641126266</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.03481612740699894</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -2856,32 +5568,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.0007362864621097388</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.001308581201371923</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.000556333335317149</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.002736893478603742</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.00108514294703002</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.003619988901314571</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.0008570616709877386</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.003132127990432978</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.000912163798714484</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.007154090122062732</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -2892,32 +5656,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.008177322385167225</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01436946221876739</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.01063870024842094</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.02223881981942249</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.005826600305056339</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.01235032181899547</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.01269029901459068</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.0258134500964139</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.02179656441673705</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.03460221530963996</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -2930,32 +5746,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.0007735809434657737</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.001341631633601929</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-0.0006073023813026046</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.002671012629019124</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.001008291415127085</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.003550887737818845</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>-0.0008548989778740649</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.003145946027286324</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.0009950745949012683</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.007259358299735389</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
@@ -2966,32 +5834,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.008228438224259896</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.01436946221876739</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.01062522137208832</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.02225207789393166</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.005795480284451865</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.01230087558285992</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.01283429121403197</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.02587367988581259</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.02180283988666212</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.03472638824443752</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -3004,32 +5924,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>0.0002459764294622936</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.003731742975228491</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.001483923618802246</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.001995253994262954</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.0007488082174973553</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.001812218796956071</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.0008074799945174461</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.001319757626625365</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.001366536688262535</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.00445424596742407</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.0005152444441360988</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.00332091680872066</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.0005838457592373171</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.002717457295830789</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.000362744458127142</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.004555706889626953</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.002028340244207811</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.004895640106552303</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.001017956020952447</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.003459720136407263</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.0006688709708996361</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.005286511277807007</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.0008745606212939641</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.003159841029979507</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.0009811857892179391</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.007291178915289688</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -3040,32 +6012,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>0.01422457393250461</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.02223764875000344</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.01501387564697399</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.02304851995739484</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0104470588955224</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01715585517075172</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.008187855264620554</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.01435416709383693</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.01621754806760916</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.0265786891305053</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.01184095276835058</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.02298411140855848</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.0106541055905622</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.02222261885954433</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.0145427883088382</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.02871524850463734</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.007525605791085948</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.01500848691699561</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.005792644346818452</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.01230016853614089</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.01400395364908383</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.02705674763362304</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.01283645664018164</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0.02587367988581259</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.02148580748722658</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.03477170241507364</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
@@ -3080,32 +6104,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>-0.0001697232608210857</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.00364609703578057</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.0008231330685073341</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.003659206279655702</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.0004056851423541617</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.002954380941034482</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.0002905439219906484</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.00220507717535961</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.001690021466798387</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.003570861360693135</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.001716969711141059</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.002975659626458294</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.00154229435611013</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.002163167149570829</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.0008892604155671885</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.005235646183792256</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.0001210833713562575</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.003950623182125614</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.0001800403125113534</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.002868033668638129</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.0003872445841343265</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.005100966862488657</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.0003411449262403113</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0.004179959160588968</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.002124027453050136</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.008445925349630512</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -3116,32 +6192,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0.01422045844588191</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.02255829727407802</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0152745213966635</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.02401296208980303</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.009659528253402817</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.01781001712152578</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.006426384250846344</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.01269298677134452</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.01683702171741016</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02751807167040463</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.01197935880693558</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.02287681488369399</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.009854562275036192</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.02048162404845047</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.01576198572841825</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.02409493746903179</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.00830786840932347</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.01580062155321267</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.005846012964756914</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.01132750485280139</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.01333208376317081</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.02702849341323518</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0.01056967572151061</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0.02420574464875417</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.01647321102411777</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.03006341419338294</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
@@ -3154,32 +6282,84 @@
           <t>Lower</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>-0.0001697232608210857</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.00364609703578057</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.0008231330685073341</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.003659206279655702</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.0004056851423541617</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.002954380941034482</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.0004484626335917068</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.00205847584633485</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.001690021466798387</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.003570861360693135</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.001716969711141059</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.002975659626458294</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.001663366415789695</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.002043690673347534</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.0008892604155671885</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.005235646183792256</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.0001210833713562575</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.003950623182125614</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.0002127104532524331</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.002770662375527927</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.0003872445841343265</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.005100966862488657</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.0004836851921943353</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0.004101906152238915</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.001771094565593712</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.00810319859660368</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
@@ -3190,32 +6370,84 @@
           <t>Upper</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>0.01422045844588191</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.02255829727407802</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0152745213966635</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.02401296208980303</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.009659528253402817</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.01781001712152578</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.00647334819828072</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.01262734017692267</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.01683702171741016</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.02751807167040463</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.01197935880693558</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.02287681488369399</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.009812678943270738</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.02055763588158346</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.01576198572841825</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.02409493746903179</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.00830786840932347</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.01580062155321267</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.005713910510838732</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.01134099576622036</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.01333208376317081</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.02702849341323518</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.01041615478414098</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.02421334891211922</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.01661344469220424</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.03009891123374142</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
